--- a/AfghanistanDataset.xlsx
+++ b/AfghanistanDataset.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livekentac-my.sharepoint.com/personal/ac2160_kent_ac_uk/Documents/First Year/COMP SCI/Data Science Practice/group project/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_9355801A2042C9E6455BADF182C2A761F3F337E3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F60F6D9F-FD25-4048-90B1-AEDCD1A9AA12}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="January Total" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="June Total" sheetId="2" r:id="rId5"/>
+    <sheet name="January Total" sheetId="1" r:id="rId1"/>
+    <sheet name="June Total" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -29,24 +38,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm"/>
     <numFmt numFmtId="165" formatCode="d/m"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -56,52 +66,52 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -291,20 +301,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -318,510 +333,511 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>44197.0</v>
+        <v>44197</v>
       </c>
       <c r="B2" s="3">
-        <v>52513.0</v>
+        <v>52513</v>
       </c>
       <c r="C2" s="3">
-        <v>2201.0</v>
+        <v>2201</v>
       </c>
       <c r="D2" s="3">
-        <v>41727.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>41727</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>44198.0</v>
+        <v>44198</v>
       </c>
       <c r="B3" s="3">
-        <v>52586.0</v>
+        <v>52586</v>
       </c>
       <c r="C3" s="3">
-        <v>2211.0</v>
+        <v>2211</v>
       </c>
       <c r="D3" s="3">
-        <v>41727.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>41727</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>44199.0</v>
+        <v>44199</v>
       </c>
       <c r="B4" s="3">
-        <v>52709.0</v>
+        <v>52709</v>
       </c>
       <c r="C4" s="3">
-        <v>2221.0</v>
+        <v>2221</v>
       </c>
       <c r="D4" s="3">
-        <v>41727.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>41727</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>44200.0</v>
+        <v>44200</v>
       </c>
       <c r="B5" s="3">
-        <v>52909.0</v>
+        <v>52909</v>
       </c>
       <c r="C5" s="3">
-        <v>2230.0</v>
+        <v>2230</v>
       </c>
       <c r="D5" s="3">
-        <v>42530.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>42530</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>44201.0</v>
+        <v>44201</v>
       </c>
       <c r="B6" s="3">
-        <v>52011.0</v>
+        <v>53011</v>
       </c>
       <c r="C6" s="3">
-        <v>2237.0</v>
+        <v>2237</v>
       </c>
       <c r="D6" s="3">
-        <v>42666.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>42666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>44202.0</v>
+        <v>44202</v>
       </c>
       <c r="B7" s="3">
-        <v>53105.0</v>
+        <v>53105</v>
       </c>
       <c r="C7" s="3">
-        <v>2244.0</v>
+        <v>2244</v>
       </c>
       <c r="D7" s="3">
-        <v>42666.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>42666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>44203.0</v>
+        <v>44203</v>
       </c>
       <c r="B8" s="3">
-        <v>53207.0</v>
+        <v>53207</v>
       </c>
       <c r="C8" s="3">
-        <v>2253.0</v>
+        <v>2253</v>
       </c>
       <c r="D8" s="3">
-        <v>43291.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>43291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>44204.0</v>
+        <v>44204</v>
       </c>
       <c r="B9" s="3">
-        <v>53332.0</v>
+        <v>53332</v>
       </c>
       <c r="C9" s="3">
-        <v>2257.0</v>
+        <v>2257</v>
       </c>
       <c r="D9" s="3">
-        <v>43440.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>43440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>44205.0</v>
+        <v>44205</v>
       </c>
       <c r="B10" s="3">
-        <v>53400.0</v>
+        <v>53400</v>
       </c>
       <c r="C10" s="3">
-        <v>2264.0</v>
+        <v>2264</v>
       </c>
       <c r="D10" s="3">
-        <v>43740.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>43740</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>44206.0</v>
+        <v>44206</v>
       </c>
       <c r="B11" s="3">
-        <v>53489.0</v>
+        <v>53489</v>
       </c>
       <c r="C11" s="3">
-        <v>2277.0</v>
+        <v>2277</v>
       </c>
       <c r="D11" s="3">
-        <v>43948.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>43948</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>44207.0</v>
+        <v>44207</v>
       </c>
       <c r="B12" s="3">
-        <v>53538.0</v>
+        <v>53538</v>
       </c>
       <c r="C12" s="3">
-        <v>2288.0</v>
+        <v>2288</v>
       </c>
       <c r="D12" s="3">
-        <v>44137.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>44137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>44208.0</v>
+        <v>44208</v>
       </c>
       <c r="B13" s="3">
-        <v>53584.0</v>
+        <v>53584</v>
       </c>
       <c r="C13" s="3">
-        <v>2301.0</v>
+        <v>2301</v>
       </c>
       <c r="D13" s="3">
-        <v>44608.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>44608</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>44209.0</v>
+        <v>44209</v>
       </c>
       <c r="B14" s="3">
-        <v>53690.0</v>
+        <v>53690</v>
       </c>
       <c r="C14" s="3">
-        <v>2308.0</v>
+        <v>2308</v>
       </c>
       <c r="D14" s="3">
-        <v>44850.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>44850</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>44210.0</v>
+        <v>44210</v>
       </c>
       <c r="B15" s="3">
-        <v>53775.0</v>
+        <v>53775</v>
       </c>
       <c r="C15" s="3">
-        <v>2314.0</v>
+        <v>2314</v>
       </c>
       <c r="D15" s="3">
-        <v>45298.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>45298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>44211.0</v>
+        <v>44211</v>
       </c>
       <c r="B16" s="3">
-        <v>53831.0</v>
+        <v>53831</v>
       </c>
       <c r="C16" s="3">
-        <v>2324.0</v>
+        <v>2324</v>
       </c>
       <c r="D16" s="3">
-        <v>45434.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>45434</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>44212.0</v>
+        <v>44212</v>
       </c>
       <c r="B17" s="3">
-        <v>53938.0</v>
+        <v>53938</v>
       </c>
       <c r="C17" s="3">
-        <v>2336.0</v>
+        <v>2336</v>
       </c>
       <c r="D17" s="3">
-        <v>45465.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>45465</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>44213.0</v>
+        <v>44213</v>
       </c>
       <c r="B18" s="3">
-        <v>53984.0</v>
+        <v>53984</v>
       </c>
       <c r="C18" s="3">
-        <v>2339.0</v>
+        <v>2339</v>
       </c>
       <c r="D18" s="3">
-        <v>45868.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>45868</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>44214.0</v>
+        <v>44214</v>
       </c>
       <c r="B19" s="3">
-        <v>54062.0</v>
+        <v>54062</v>
       </c>
       <c r="C19" s="3">
-        <v>2343.0</v>
+        <v>2343</v>
       </c>
       <c r="D19" s="3">
-        <v>46359.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>46359</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>44215.0</v>
+        <v>44215</v>
       </c>
       <c r="B20" s="3">
-        <v>54141.0</v>
+        <v>54141</v>
       </c>
       <c r="C20" s="3">
-        <v>2346.0</v>
+        <v>2346</v>
       </c>
       <c r="D20" s="3">
-        <v>46554.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>46554</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>44216.0</v>
+        <v>44216</v>
       </c>
       <c r="B21" s="3">
-        <v>54278.0</v>
+        <v>54278</v>
       </c>
       <c r="C21" s="3">
-        <v>2354.0</v>
+        <v>2354</v>
       </c>
       <c r="D21" s="3">
-        <v>46759.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>46759</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>44217.0</v>
+        <v>44217</v>
       </c>
       <c r="B22" s="3">
-        <v>54403.0</v>
+        <v>54403</v>
       </c>
       <c r="C22" s="3">
-        <v>2363.0</v>
+        <v>2363</v>
       </c>
       <c r="D22" s="3">
-        <v>46887.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>46887</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>44218.0</v>
+        <v>44218</v>
       </c>
       <c r="B23" s="3">
-        <v>54483.0</v>
+        <v>54483</v>
       </c>
       <c r="C23" s="3">
-        <v>2370.0</v>
+        <v>2370</v>
       </c>
       <c r="D23" s="3">
-        <v>46912.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>46912</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>44219.0</v>
+        <v>44219</v>
       </c>
       <c r="B24" s="3">
-        <v>54559.0</v>
+        <v>54559</v>
       </c>
       <c r="C24" s="3">
-        <v>2373.0</v>
+        <v>2373</v>
       </c>
       <c r="D24" s="3">
-        <v>46943.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>46943</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>44220.0</v>
+        <v>44220</v>
       </c>
       <c r="B25" s="3">
-        <v>54595.0</v>
+        <v>54595</v>
       </c>
       <c r="C25" s="3">
-        <v>2378.0</v>
+        <v>2378</v>
       </c>
       <c r="D25" s="3">
-        <v>47298.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>47298</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>44221.0</v>
+        <v>44221</v>
       </c>
       <c r="B26" s="3">
-        <v>54672.0</v>
+        <v>54672</v>
       </c>
       <c r="C26" s="3">
-        <v>2385.0</v>
+        <v>2385</v>
       </c>
       <c r="D26" s="3">
-        <v>47365.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>47365</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>44222.0</v>
+        <v>44222</v>
       </c>
       <c r="B27" s="3">
-        <v>54750.0</v>
+        <v>54750</v>
       </c>
       <c r="C27" s="3">
-        <v>2389.0</v>
+        <v>2389</v>
       </c>
       <c r="D27" s="3">
-        <v>47459.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>47459</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>44223.0</v>
+        <v>44223</v>
       </c>
       <c r="B28" s="3">
-        <v>54854.0</v>
+        <v>54854</v>
       </c>
       <c r="C28" s="3">
-        <v>2389.0</v>
+        <v>2389</v>
       </c>
       <c r="D28" s="3">
-        <v>47549.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>47549</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>44224.0</v>
+        <v>44224</v>
       </c>
       <c r="B29" s="3">
-        <v>54891.0</v>
+        <v>54891</v>
       </c>
       <c r="C29" s="3">
-        <v>2397.0</v>
+        <v>2397</v>
       </c>
       <c r="D29" s="3">
-        <v>47583.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>47583</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>44225.0</v>
+        <v>44225</v>
       </c>
       <c r="B30" s="3">
-        <v>54939.0</v>
+        <v>54939</v>
       </c>
       <c r="C30" s="3">
-        <v>2399.0</v>
+        <v>2399</v>
       </c>
       <c r="D30" s="3">
-        <v>47606.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>47606</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>44226.0</v>
+        <v>44226</v>
       </c>
       <c r="B31" s="3">
-        <v>55008.0</v>
+        <v>55008</v>
       </c>
       <c r="C31" s="3">
-        <v>2400.0</v>
+        <v>2400</v>
       </c>
       <c r="D31" s="3">
-        <v>47609.0</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>47609</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>44227.0</v>
+        <v>44227</v>
       </c>
       <c r="B32" s="3">
-        <v>55023.0</v>
+        <v>55023</v>
       </c>
       <c r="C32" s="3">
-        <v>2400.0</v>
+        <v>2400</v>
       </c>
       <c r="D32" s="3">
-        <v>47679.0</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>47679</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -835,427 +851,427 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>44348.0</v>
+        <v>44348</v>
       </c>
       <c r="B2" s="3">
-        <v>72977.0</v>
+        <v>72977</v>
       </c>
       <c r="C2" s="3">
-        <v>2973.0</v>
+        <v>2973</v>
       </c>
       <c r="D2" s="3">
-        <v>57741.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>57741</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>44349.0</v>
+        <v>44349</v>
       </c>
       <c r="B3" s="3">
-        <v>74026.0</v>
+        <v>74026</v>
       </c>
       <c r="C3" s="3">
-        <v>3007.0</v>
+        <v>3007</v>
       </c>
       <c r="D3" s="3">
-        <v>57963.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>57963</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>44350.0</v>
+        <v>44350</v>
       </c>
       <c r="B4" s="3">
-        <v>75119.0</v>
+        <v>75119</v>
       </c>
       <c r="C4" s="3">
-        <v>3034.0</v>
+        <v>3034</v>
       </c>
       <c r="D4" s="3">
-        <v>58070.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>58070</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>44351.0</v>
+        <v>44351</v>
       </c>
       <c r="B5" s="3">
-        <v>76628.0</v>
+        <v>76628</v>
       </c>
       <c r="C5" s="3">
-        <v>3068.0</v>
+        <v>3068</v>
       </c>
       <c r="D5" s="3">
-        <v>58144.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>58144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>44352.0</v>
+        <v>44352</v>
       </c>
       <c r="B6" s="3">
-        <v>77963.0</v>
+        <v>77963</v>
       </c>
       <c r="C6" s="3">
-        <v>3104.0</v>
+        <v>3104</v>
       </c>
       <c r="D6" s="3">
-        <v>58265.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>58265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>44353.0</v>
+        <v>44353</v>
       </c>
       <c r="B7" s="3">
-        <v>79224.0</v>
+        <v>79224</v>
       </c>
       <c r="C7" s="3">
-        <v>3145.0</v>
+        <v>3145</v>
       </c>
       <c r="D7" s="3">
-        <v>58622.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>58622</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>44354.0</v>
+        <v>44354</v>
       </c>
       <c r="B8" s="3">
-        <v>80841.0</v>
+        <v>80841</v>
       </c>
       <c r="C8" s="3">
-        <v>3187.0</v>
+        <v>3187</v>
       </c>
       <c r="D8" s="3">
-        <v>58998.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>58998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>44355.0</v>
+        <v>44355</v>
       </c>
       <c r="B9" s="3">
-        <v>82326.0</v>
+        <v>82326</v>
       </c>
       <c r="C9" s="3">
-        <v>3251.0</v>
+        <v>3251</v>
       </c>
       <c r="D9" s="3">
-        <v>59569.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>59569</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>44356.0</v>
+        <v>44356</v>
       </c>
       <c r="B10" s="3">
-        <v>84050.0</v>
+        <v>84050</v>
       </c>
       <c r="C10" s="3">
-        <v>3305.0</v>
+        <v>3305</v>
       </c>
       <c r="D10" s="3">
-        <v>59871.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>59871</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>44357.0</v>
+        <v>44357</v>
       </c>
       <c r="B11" s="3">
-        <v>85892.0</v>
+        <v>85892</v>
       </c>
       <c r="C11" s="3">
-        <v>3356.0</v>
+        <v>3356</v>
       </c>
       <c r="D11" s="3">
-        <v>60280.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>60280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>44358.0</v>
+        <v>44358</v>
       </c>
       <c r="B12" s="3">
-        <v>87716.0</v>
+        <v>87716</v>
       </c>
       <c r="C12" s="3">
-        <v>3412.0</v>
+        <v>3412</v>
       </c>
       <c r="D12" s="3">
-        <v>60598.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>60598</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>44359.0</v>
+        <v>44359</v>
       </c>
       <c r="B13" s="3">
-        <v>88740.0</v>
+        <v>88740</v>
       </c>
       <c r="C13" s="3">
-        <v>3449.0</v>
+        <v>3449</v>
       </c>
       <c r="D13" s="3">
-        <v>60939.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>60939</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>44360.0</v>
+        <v>44360</v>
       </c>
       <c r="B14" s="3">
-        <v>89861.0</v>
+        <v>89861</v>
       </c>
       <c r="C14" s="3">
-        <v>3527.0</v>
+        <v>3527</v>
       </c>
       <c r="D14" s="3">
-        <v>61410.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>61410</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>44361.0</v>
+        <v>44361</v>
       </c>
       <c r="B15" s="3">
-        <v>91458.0</v>
+        <v>91458</v>
       </c>
       <c r="C15" s="3">
-        <v>3612.0</v>
+        <v>3612</v>
       </c>
       <c r="D15" s="3">
-        <v>61706.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>61706</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>44362.0</v>
+        <v>44362</v>
       </c>
       <c r="B16" s="3">
-        <v>93272.0</v>
+        <v>93272</v>
       </c>
       <c r="C16" s="3">
-        <v>3683.0</v>
+        <v>3683</v>
       </c>
       <c r="D16" s="3">
-        <v>61820.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>61820</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>44363.0</v>
+        <v>44363</v>
       </c>
       <c r="B17" s="3">
-        <v>93288.0</v>
+        <v>93288</v>
       </c>
       <c r="C17" s="3">
-        <v>3683.0</v>
+        <v>3683</v>
       </c>
       <c r="D17" s="3">
-        <v>62397.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>62397</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>44364.0</v>
+        <v>44364</v>
       </c>
       <c r="B18" s="3">
-        <v>96531.0</v>
+        <v>96531</v>
       </c>
       <c r="C18" s="3">
-        <v>3842.0</v>
+        <v>3842</v>
       </c>
       <c r="D18" s="3">
-        <v>62698.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>62698</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>44365.0</v>
+        <v>44365</v>
       </c>
       <c r="B19" s="3">
-        <v>98734.0</v>
+        <v>98734</v>
       </c>
       <c r="C19" s="3">
-        <v>3934.0</v>
+        <v>3934</v>
       </c>
       <c r="D19" s="3">
-        <v>63426.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>63426</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>44366.0</v>
+        <v>44366</v>
       </c>
       <c r="B20" s="3">
-        <v>100521.0</v>
+        <v>100521</v>
       </c>
       <c r="C20" s="3">
-        <v>4030.0</v>
+        <v>4030</v>
       </c>
       <c r="D20" s="3">
-        <v>63875.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>63875</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>44367.0</v>
+        <v>44367</v>
       </c>
       <c r="B21" s="3">
-        <v>101906.0</v>
+        <v>101906</v>
       </c>
       <c r="C21" s="3">
-        <v>4122.0</v>
+        <v>4122</v>
       </c>
       <c r="D21" s="3">
-        <v>64401.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>64401</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>44368.0</v>
+        <v>44368</v>
       </c>
       <c r="B22" s="3">
-        <v>103902.0</v>
+        <v>103902</v>
       </c>
       <c r="C22" s="3">
-        <v>4215.0</v>
+        <v>4215</v>
       </c>
       <c r="D22" s="3">
-        <v>65071.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>65071</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>44369.0</v>
+        <v>44369</v>
       </c>
       <c r="B23" s="3">
-        <v>105749.0</v>
+        <v>105749</v>
       </c>
       <c r="C23" s="3">
-        <v>4293.0</v>
+        <v>4293</v>
       </c>
       <c r="D23" s="3">
-        <v>65565.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>65565</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>44370.0</v>
+        <v>44370</v>
       </c>
       <c r="B24" s="3">
-        <v>107957.0</v>
+        <v>107957</v>
       </c>
       <c r="C24" s="3">
-        <v>4366.0</v>
+        <v>4366</v>
       </c>
       <c r="D24" s="3">
-        <v>66102.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>66102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>44371.0</v>
+        <v>44371</v>
       </c>
       <c r="B25" s="3">
-        <v>109532.0</v>
+        <v>109532</v>
       </c>
       <c r="C25" s="3">
-        <v>4452.0</v>
+        <v>4452</v>
       </c>
       <c r="D25" s="3">
-        <v>66799.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>66799</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>44372.0</v>
+        <v>44372</v>
       </c>
       <c r="B26" s="3">
-        <v>111592.0</v>
+        <v>111592</v>
       </c>
       <c r="C26" s="3">
-        <v>4519.0</v>
+        <v>4519</v>
       </c>
       <c r="D26" s="3">
-        <v>67183.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>67183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>44373.0</v>
+        <v>44373</v>
       </c>
       <c r="B27" s="3">
-        <v>113124.0</v>
+        <v>113124</v>
       </c>
       <c r="C27" s="3">
-        <v>4594.0</v>
+        <v>4594</v>
       </c>
       <c r="D27" s="3">
-        <v>67483.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>67483</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>44374.0</v>
+        <v>44374</v>
       </c>
       <c r="B28" s="3">
-        <v>114220.0</v>
+        <v>114220</v>
       </c>
       <c r="C28" s="3">
-        <v>4650.0</v>
+        <v>4650</v>
       </c>
       <c r="D28" s="3">
-        <v>68288.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>68288</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>44375.0</v>
+        <v>44375</v>
       </c>
       <c r="B29" s="3">
-        <v>115751.0</v>
+        <v>115751</v>
       </c>
       <c r="C29" s="3">
-        <v>4730.0</v>
+        <v>4730</v>
       </c>
       <c r="D29" s="3">
-        <v>69205.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>69205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>44376.0</v>
+        <v>44376</v>
       </c>
       <c r="B30" s="3">
-        <v>117158.0</v>
+        <v>117158</v>
       </c>
       <c r="C30" s="3">
-        <v>4794.0</v>
+        <v>4794</v>
       </c>
       <c r="D30" s="3">
-        <v>70016.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>70016</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>44377.0</v>
+        <v>44377</v>
       </c>
       <c r="B31" s="3">
-        <v>118659.0</v>
+        <v>118659</v>
       </c>
       <c r="C31" s="3">
-        <v>4871.0</v>
-      </c>
-      <c r="D31" s="5">
-        <v>71012.0</v>
+        <v>4871</v>
+      </c>
+      <c r="D31" s="1">
+        <v>71012</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>